--- a/Docs/Experimental Observations.xlsx
+++ b/Docs/Experimental Observations.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Histograms" sheetId="2" r:id="rId2"/>
+    <sheet name="Per Round" sheetId="3" r:id="rId2"/>
+    <sheet name="Histograms" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="23">
   <si>
     <t>Participant</t>
   </si>
@@ -66,6 +67,24 @@
   </si>
   <si>
     <t>Mask</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Trial Length Millis</t>
+  </si>
+  <si>
+    <t>Difused</t>
+  </si>
+  <si>
+    <t>Exploited</t>
+  </si>
+  <si>
+    <t>ErrorRate</t>
+  </si>
+  <si>
+    <t>BPS</t>
   </si>
 </sst>
 </file>
@@ -126,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -136,6 +155,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,11 +477,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="62595840"/>
-        <c:axId val="91654784"/>
+        <c:axId val="104903424"/>
+        <c:axId val="104904960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62595840"/>
+        <c:axId val="104903424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -470,7 +490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91654784"/>
+        <c:crossAx val="104904960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -478,7 +498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91654784"/>
+        <c:axId val="104904960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62595840"/>
+        <c:crossAx val="104903424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -818,11 +838,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="49133056"/>
-        <c:axId val="49134592"/>
+        <c:axId val="118231424"/>
+        <c:axId val="118232960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49133056"/>
+        <c:axId val="118231424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49134592"/>
+        <c:crossAx val="118232960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -839,7 +859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49134592"/>
+        <c:axId val="118232960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49133056"/>
+        <c:crossAx val="118231424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1131,11 +1151,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="49202304"/>
-        <c:axId val="49203840"/>
+        <c:axId val="118267904"/>
+        <c:axId val="118269440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49202304"/>
+        <c:axId val="118267904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49203840"/>
+        <c:crossAx val="118269440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1152,7 +1172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49203840"/>
+        <c:axId val="118269440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49202304"/>
+        <c:crossAx val="118267904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1570,8 +1590,8 @@
   <dimension ref="A1:I722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A693" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G723" sqref="G723"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23266,10 +23286,3277 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A2,'All Data'!$B$2:$B$722,'Per Round'!$B2,'All Data'!$D$2:$D$722,'Per Round'!$C2)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A2,'All Data'!$B$2:$B$722,'Per Round'!$B2,'All Data'!$D$2:$D$722,'Per Round'!$C2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A2,'All Data'!$B$2:$B$722,'Per Round'!$B2,'All Data'!$D$2:$D$722,'Per Round'!$C2)</f>
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A2,'All Data'!$B$2:$B$722,'Per Round'!$B2,'All Data'!$D$2:$D$722,'Per Round'!$C2)</f>
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>155767</v>
+      </c>
+      <c r="K2">
+        <v>296</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2" s="5">
+        <f>L2/K2</f>
+        <v>1.6891891891891893E-2</v>
+      </c>
+      <c r="N2">
+        <f>(K2+L2)/(J2/1000)</f>
+        <v>1.9323733525072706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A3,'All Data'!$B$2:$B$722,'Per Round'!$B3,'All Data'!$D$2:$D$722,'Per Round'!$C3)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A3,'All Data'!$B$2:$B$722,'Per Round'!$B3,'All Data'!$D$2:$D$722,'Per Round'!$C3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A3,'All Data'!$B$2:$B$722,'Per Round'!$B3,'All Data'!$D$2:$D$722,'Per Round'!$C3)</f>
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A3,'All Data'!$B$2:$B$722,'Per Round'!$B3,'All Data'!$D$2:$D$722,'Per Round'!$C3)</f>
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>173293</v>
+      </c>
+      <c r="K3">
+        <v>334</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <f>L3/K3</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>(K3+L3)/(J3/1000)</f>
+        <v>1.9273715614594933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A4,'All Data'!$B$2:$B$722,'Per Round'!$B4,'All Data'!$D$2:$D$722,'Per Round'!$C4)</f>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A4,'All Data'!$B$2:$B$722,'Per Round'!$B4,'All Data'!$D$2:$D$722,'Per Round'!$C4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A4,'All Data'!$B$2:$B$722,'Per Round'!$B4,'All Data'!$D$2:$D$722,'Per Round'!$C4)</f>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A4,'All Data'!$B$2:$B$722,'Per Round'!$B4,'All Data'!$D$2:$D$722,'Per Round'!$C4)</f>
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>182701</v>
+      </c>
+      <c r="K4">
+        <v>352</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <f>L4/K4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>(K4+L4)/(J4/1000)</f>
+        <v>1.926645174355915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A5,'All Data'!$B$2:$B$722,'Per Round'!$B5,'All Data'!$D$2:$D$722,'Per Round'!$C5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A5,'All Data'!$B$2:$B$722,'Per Round'!$B5,'All Data'!$D$2:$D$722,'Per Round'!$C5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A5,'All Data'!$B$2:$B$722,'Per Round'!$B5,'All Data'!$D$2:$D$722,'Per Round'!$C5)</f>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A5,'All Data'!$B$2:$B$722,'Per Round'!$B5,'All Data'!$D$2:$D$722,'Per Round'!$C5)</f>
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>178693</v>
+      </c>
+      <c r="K5">
+        <v>345</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <f>L5/K5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>(K5+L5)/(J5/1000)</f>
+        <v>1.9306855892508379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A6,'All Data'!$B$2:$B$722,'Per Round'!$B6,'All Data'!$D$2:$D$722,'Per Round'!$C6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A6,'All Data'!$B$2:$B$722,'Per Round'!$B6,'All Data'!$D$2:$D$722,'Per Round'!$C6)</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A6,'All Data'!$B$2:$B$722,'Per Round'!$B6,'All Data'!$D$2:$D$722,'Per Round'!$C6)</f>
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A6,'All Data'!$B$2:$B$722,'Per Round'!$B6,'All Data'!$D$2:$D$722,'Per Round'!$C6)</f>
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>159684</v>
+      </c>
+      <c r="K6">
+        <v>303</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="5">
+        <f>L6/K6</f>
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="N6">
+        <f>(K6+L6)/(J6/1000)</f>
+        <v>1.9162846622078606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A7,'All Data'!$B$2:$B$722,'Per Round'!$B7,'All Data'!$D$2:$D$722,'Per Round'!$C7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A7,'All Data'!$B$2:$B$722,'Per Round'!$B7,'All Data'!$D$2:$D$722,'Per Round'!$C7)</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A7,'All Data'!$B$2:$B$722,'Per Round'!$B7,'All Data'!$D$2:$D$722,'Per Round'!$C7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A7,'All Data'!$B$2:$B$722,'Per Round'!$B7,'All Data'!$D$2:$D$722,'Per Round'!$C7)</f>
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>157124</v>
+      </c>
+      <c r="K7">
+        <v>298</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7/K7</f>
+        <v>1.0067114093959731E-2</v>
+      </c>
+      <c r="N7">
+        <f>(K7+L7)/(J7/1000)</f>
+        <v>1.9156844275858558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A8,'All Data'!$B$2:$B$722,'Per Round'!$B8,'All Data'!$D$2:$D$722,'Per Round'!$C8)</f>
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A8,'All Data'!$B$2:$B$722,'Per Round'!$B8,'All Data'!$D$2:$D$722,'Per Round'!$C8)</f>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A8,'All Data'!$B$2:$B$722,'Per Round'!$B8,'All Data'!$D$2:$D$722,'Per Round'!$C8)</f>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A8,'All Data'!$B$2:$B$722,'Per Round'!$B8,'All Data'!$D$2:$D$722,'Per Round'!$C8)</f>
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>158112</v>
+      </c>
+      <c r="K8">
+        <v>300</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="5">
+        <f>L8/K8</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="N8">
+        <f>(K8+L8)/(J8/1000)</f>
+        <v>1.9100384537543007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A9,'All Data'!$B$2:$B$722,'Per Round'!$B9,'All Data'!$D$2:$D$722,'Per Round'!$C9)</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A9,'All Data'!$B$2:$B$722,'Per Round'!$B9,'All Data'!$D$2:$D$722,'Per Round'!$C9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A9,'All Data'!$B$2:$B$722,'Per Round'!$B9,'All Data'!$D$2:$D$722,'Per Round'!$C9)</f>
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A9,'All Data'!$B$2:$B$722,'Per Round'!$B9,'All Data'!$D$2:$D$722,'Per Round'!$C9)</f>
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>148422</v>
+      </c>
+      <c r="K9">
+        <v>284</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <f>L9/K9</f>
+        <v>3.5211267605633804E-3</v>
+      </c>
+      <c r="N9">
+        <f>(K9+L9)/(J9/1000)</f>
+        <v>1.9202005093584509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A10,'All Data'!$B$2:$B$722,'Per Round'!$B10,'All Data'!$D$2:$D$722,'Per Round'!$C10)</f>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A10,'All Data'!$B$2:$B$722,'Per Round'!$B10,'All Data'!$D$2:$D$722,'Per Round'!$C10)</f>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A10,'All Data'!$B$2:$B$722,'Per Round'!$B10,'All Data'!$D$2:$D$722,'Per Round'!$C10)</f>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A10,'All Data'!$B$2:$B$722,'Per Round'!$B10,'All Data'!$D$2:$D$722,'Per Round'!$C10)</f>
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>107723</v>
+      </c>
+      <c r="K10">
+        <v>206</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <f>L10/K10</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>(K10+L10)/(J10/1000)</f>
+        <v>1.9123121338989817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A11,'All Data'!$B$2:$B$722,'Per Round'!$B11,'All Data'!$D$2:$D$722,'Per Round'!$C11)</f>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A11,'All Data'!$B$2:$B$722,'Per Round'!$B11,'All Data'!$D$2:$D$722,'Per Round'!$C11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A11,'All Data'!$B$2:$B$722,'Per Round'!$B11,'All Data'!$D$2:$D$722,'Per Round'!$C11)</f>
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A11,'All Data'!$B$2:$B$722,'Per Round'!$B11,'All Data'!$D$2:$D$722,'Per Round'!$C11)</f>
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>106730</v>
+      </c>
+      <c r="K11">
+        <v>206</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <f>L11/K11</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>(K11+L11)/(J11/1000)</f>
+        <v>1.9301040007495549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A12,'All Data'!$B$2:$B$722,'Per Round'!$B12,'All Data'!$D$2:$D$722,'Per Round'!$C12)</f>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A12,'All Data'!$B$2:$B$722,'Per Round'!$B12,'All Data'!$D$2:$D$722,'Per Round'!$C12)</f>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A12,'All Data'!$B$2:$B$722,'Per Round'!$B12,'All Data'!$D$2:$D$722,'Per Round'!$C12)</f>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A12,'All Data'!$B$2:$B$722,'Per Round'!$B12,'All Data'!$D$2:$D$722,'Per Round'!$C12)</f>
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>108488</v>
+      </c>
+      <c r="K12">
+        <v>208</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <f>L12/K12</f>
+        <v>4.807692307692308E-3</v>
+      </c>
+      <c r="N12">
+        <f>(K12+L12)/(J12/1000)</f>
+        <v>1.9264803480569279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A13,'All Data'!$B$2:$B$722,'Per Round'!$B13,'All Data'!$D$2:$D$722,'Per Round'!$C13)</f>
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A13,'All Data'!$B$2:$B$722,'Per Round'!$B13,'All Data'!$D$2:$D$722,'Per Round'!$C13)</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A13,'All Data'!$B$2:$B$722,'Per Round'!$B13,'All Data'!$D$2:$D$722,'Per Round'!$C13)</f>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A13,'All Data'!$B$2:$B$722,'Per Round'!$B13,'All Data'!$D$2:$D$722,'Per Round'!$C13)</f>
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>107879</v>
+      </c>
+      <c r="K13">
+        <v>206</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <f>L13/K13</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>(K13+L13)/(J13/1000)</f>
+        <v>1.909546807070885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A14,'All Data'!$B$2:$B$722,'Per Round'!$B14,'All Data'!$D$2:$D$722,'Per Round'!$C14)</f>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A14,'All Data'!$B$2:$B$722,'Per Round'!$B14,'All Data'!$D$2:$D$722,'Per Round'!$C14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A14,'All Data'!$B$2:$B$722,'Per Round'!$B14,'All Data'!$D$2:$D$722,'Per Round'!$C14)</f>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A14,'All Data'!$B$2:$B$722,'Per Round'!$B14,'All Data'!$D$2:$D$722,'Per Round'!$C14)</f>
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>108739</v>
+      </c>
+      <c r="K14">
+        <v>210</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <f>L14/K14</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>(K14+L14)/(J14/1000)</f>
+        <v>1.9312298255455724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A15,'All Data'!$B$2:$B$722,'Per Round'!$B15,'All Data'!$D$2:$D$722,'Per Round'!$C15)</f>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A15,'All Data'!$B$2:$B$722,'Per Round'!$B15,'All Data'!$D$2:$D$722,'Per Round'!$C15)</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A15,'All Data'!$B$2:$B$722,'Per Round'!$B15,'All Data'!$D$2:$D$722,'Per Round'!$C15)</f>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A15,'All Data'!$B$2:$B$722,'Per Round'!$B15,'All Data'!$D$2:$D$722,'Per Round'!$C15)</f>
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>112298</v>
+      </c>
+      <c r="K15">
+        <v>217</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <f>L15/K15</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>(K15+L15)/(J15/1000)</f>
+        <v>1.9323585460115051</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A16,'All Data'!$B$2:$B$722,'Per Round'!$B16,'All Data'!$D$2:$D$722,'Per Round'!$C16)</f>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A16,'All Data'!$B$2:$B$722,'Per Round'!$B16,'All Data'!$D$2:$D$722,'Per Round'!$C16)</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A16,'All Data'!$B$2:$B$722,'Per Round'!$B16,'All Data'!$D$2:$D$722,'Per Round'!$C16)</f>
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A16,'All Data'!$B$2:$B$722,'Per Round'!$B16,'All Data'!$D$2:$D$722,'Per Round'!$C16)</f>
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>105565</v>
+      </c>
+      <c r="K16">
+        <v>204</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <f>L16/K16</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>(K16+L16)/(J16/1000)</f>
+        <v>1.932458674750154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A17,'All Data'!$B$2:$B$722,'Per Round'!$B17,'All Data'!$D$2:$D$722,'Per Round'!$C17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A17,'All Data'!$B$2:$B$722,'Per Round'!$B17,'All Data'!$D$2:$D$722,'Per Round'!$C17)</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A17,'All Data'!$B$2:$B$722,'Per Round'!$B17,'All Data'!$D$2:$D$722,'Per Round'!$C17)</f>
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A17,'All Data'!$B$2:$B$722,'Per Round'!$B17,'All Data'!$D$2:$D$722,'Per Round'!$C17)</f>
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>110603</v>
+      </c>
+      <c r="K17">
+        <v>214</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <f>L17/K17</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>(K17+L17)/(J17/1000)</f>
+        <v>1.9348480601791995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A18,'All Data'!$B$2:$B$722,'Per Round'!$B18,'All Data'!$D$2:$D$722,'Per Round'!$C18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A18,'All Data'!$B$2:$B$722,'Per Round'!$B18,'All Data'!$D$2:$D$722,'Per Round'!$C18)</f>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A18,'All Data'!$B$2:$B$722,'Per Round'!$B18,'All Data'!$D$2:$D$722,'Per Round'!$C18)</f>
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A18,'All Data'!$B$2:$B$722,'Per Round'!$B18,'All Data'!$D$2:$D$722,'Per Round'!$C18)</f>
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>141634</v>
+      </c>
+      <c r="K18">
+        <v>237</v>
+      </c>
+      <c r="L18">
+        <v>24</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>(K18+L18)/(J18/1000)</f>
+        <v>1.8427778640721861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A19,'All Data'!$B$2:$B$722,'Per Round'!$B19,'All Data'!$D$2:$D$722,'Per Round'!$C19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A19,'All Data'!$B$2:$B$722,'Per Round'!$B19,'All Data'!$D$2:$D$722,'Per Round'!$C19)</f>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A19,'All Data'!$B$2:$B$722,'Per Round'!$B19,'All Data'!$D$2:$D$722,'Per Round'!$C19)</f>
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A19,'All Data'!$B$2:$B$722,'Per Round'!$B19,'All Data'!$D$2:$D$722,'Per Round'!$C19)</f>
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>144331</v>
+      </c>
+      <c r="K19">
+        <v>262</v>
+      </c>
+      <c r="L19">
+        <v>11</v>
+      </c>
+      <c r="M19" s="5">
+        <f>L19/K19</f>
+        <v>4.1984732824427481E-2</v>
+      </c>
+      <c r="N19">
+        <f>(K19+L19)/(J19/1000)</f>
+        <v>1.8914855436462024</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A20,'All Data'!$B$2:$B$722,'Per Round'!$B20,'All Data'!$D$2:$D$722,'Per Round'!$C20)</f>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A20,'All Data'!$B$2:$B$722,'Per Round'!$B20,'All Data'!$D$2:$D$722,'Per Round'!$C20)</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A20,'All Data'!$B$2:$B$722,'Per Round'!$B20,'All Data'!$D$2:$D$722,'Per Round'!$C20)</f>
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A20,'All Data'!$B$2:$B$722,'Per Round'!$B20,'All Data'!$D$2:$D$722,'Per Round'!$C20)</f>
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>132818</v>
+      </c>
+      <c r="K20">
+        <v>249</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20" s="5">
+        <f>L20/K20</f>
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="N20">
+        <f>(K20+L20)/(J20/1000)</f>
+        <v>1.8973331927901338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A21,'All Data'!$B$2:$B$722,'Per Round'!$B21,'All Data'!$D$2:$D$722,'Per Round'!$C21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A21,'All Data'!$B$2:$B$722,'Per Round'!$B21,'All Data'!$D$2:$D$722,'Per Round'!$C21)</f>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A21,'All Data'!$B$2:$B$722,'Per Round'!$B21,'All Data'!$D$2:$D$722,'Per Round'!$C21)</f>
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A21,'All Data'!$B$2:$B$722,'Per Round'!$B21,'All Data'!$D$2:$D$722,'Per Round'!$C21)</f>
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>132421</v>
+      </c>
+      <c r="K21">
+        <v>252</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21" s="5">
+        <f>L21/K21</f>
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="N21">
+        <f>(K21+L21)/(J21/1000)</f>
+        <v>1.9181247687300353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A22,'All Data'!$B$2:$B$722,'Per Round'!$B22,'All Data'!$D$2:$D$722,'Per Round'!$C22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A22,'All Data'!$B$2:$B$722,'Per Round'!$B22,'All Data'!$D$2:$D$722,'Per Round'!$C22)</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A22,'All Data'!$B$2:$B$722,'Per Round'!$B22,'All Data'!$D$2:$D$722,'Per Round'!$C22)</f>
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A22,'All Data'!$B$2:$B$722,'Per Round'!$B22,'All Data'!$D$2:$D$722,'Per Round'!$C22)</f>
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>136895</v>
+      </c>
+      <c r="K22">
+        <v>242</v>
+      </c>
+      <c r="L22">
+        <v>15</v>
+      </c>
+      <c r="M22" s="5">
+        <f>L22/K22</f>
+        <v>6.1983471074380167E-2</v>
+      </c>
+      <c r="N22">
+        <f>(K22+L22)/(J22/1000)</f>
+        <v>1.8773512546111981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A23,'All Data'!$B$2:$B$722,'Per Round'!$B23,'All Data'!$D$2:$D$722,'Per Round'!$C23)</f>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A23,'All Data'!$B$2:$B$722,'Per Round'!$B23,'All Data'!$D$2:$D$722,'Per Round'!$C23)</f>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A23,'All Data'!$B$2:$B$722,'Per Round'!$B23,'All Data'!$D$2:$D$722,'Per Round'!$C23)</f>
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A23,'All Data'!$B$2:$B$722,'Per Round'!$B23,'All Data'!$D$2:$D$722,'Per Round'!$C23)</f>
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>132528</v>
+      </c>
+      <c r="K23">
+        <v>249</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23" s="5">
+        <f>L23/K23</f>
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="N23">
+        <f>(K23+L23)/(J23/1000)</f>
+        <v>1.901484969214053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A24,'All Data'!$B$2:$B$722,'Per Round'!$B24,'All Data'!$D$2:$D$722,'Per Round'!$C24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A24,'All Data'!$B$2:$B$722,'Per Round'!$B24,'All Data'!$D$2:$D$722,'Per Round'!$C24)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A24,'All Data'!$B$2:$B$722,'Per Round'!$B24,'All Data'!$D$2:$D$722,'Per Round'!$C24)</f>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A24,'All Data'!$B$2:$B$722,'Per Round'!$B24,'All Data'!$D$2:$D$722,'Per Round'!$C24)</f>
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>129483</v>
+      </c>
+      <c r="K24">
+        <v>246</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5">
+        <f>L24/K24</f>
+        <v>4.0650406504065045E-3</v>
+      </c>
+      <c r="N24">
+        <f>(K24+L24)/(J24/1000)</f>
+        <v>1.9075863240734305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A25,'All Data'!$B$2:$B$722,'Per Round'!$B25,'All Data'!$D$2:$D$722,'Per Round'!$C25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A25,'All Data'!$B$2:$B$722,'Per Round'!$B25,'All Data'!$D$2:$D$722,'Per Round'!$C25)</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A25,'All Data'!$B$2:$B$722,'Per Round'!$B25,'All Data'!$D$2:$D$722,'Per Round'!$C25)</f>
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A25,'All Data'!$B$2:$B$722,'Per Round'!$B25,'All Data'!$D$2:$D$722,'Per Round'!$C25)</f>
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>131609</v>
+      </c>
+      <c r="K25">
+        <v>254</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <f>L25/K25</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f>(K25+L25)/(J25/1000)</f>
+        <v>1.9299591973193322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A26,'All Data'!$B$2:$B$722,'Per Round'!$B26,'All Data'!$D$2:$D$722,'Per Round'!$C26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A26,'All Data'!$B$2:$B$722,'Per Round'!$B26,'All Data'!$D$2:$D$722,'Per Round'!$C26)</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A26,'All Data'!$B$2:$B$722,'Per Round'!$B26,'All Data'!$D$2:$D$722,'Per Round'!$C26)</f>
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A26,'All Data'!$B$2:$B$722,'Per Round'!$B26,'All Data'!$D$2:$D$722,'Per Round'!$C26)</f>
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>135119</v>
+      </c>
+      <c r="K26">
+        <v>259</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <f>L26/K26</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>(K26+L26)/(J26/1000)</f>
+        <v>1.9168288693670024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A27,'All Data'!$B$2:$B$722,'Per Round'!$B27,'All Data'!$D$2:$D$722,'Per Round'!$C27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A27,'All Data'!$B$2:$B$722,'Per Round'!$B27,'All Data'!$D$2:$D$722,'Per Round'!$C27)</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A27,'All Data'!$B$2:$B$722,'Per Round'!$B27,'All Data'!$D$2:$D$722,'Per Round'!$C27)</f>
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A27,'All Data'!$B$2:$B$722,'Per Round'!$B27,'All Data'!$D$2:$D$722,'Per Round'!$C27)</f>
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>131484</v>
+      </c>
+      <c r="K27">
+        <v>254</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <f>L27/K27</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f>(K27+L27)/(J27/1000)</f>
+        <v>1.9317939825377992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A28,'All Data'!$B$2:$B$722,'Per Round'!$B28,'All Data'!$D$2:$D$722,'Per Round'!$C28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A28,'All Data'!$B$2:$B$722,'Per Round'!$B28,'All Data'!$D$2:$D$722,'Per Round'!$C28)</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A28,'All Data'!$B$2:$B$722,'Per Round'!$B28,'All Data'!$D$2:$D$722,'Per Round'!$C28)</f>
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A28,'All Data'!$B$2:$B$722,'Per Round'!$B28,'All Data'!$D$2:$D$722,'Per Round'!$C28)</f>
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>141145</v>
+      </c>
+      <c r="K28">
+        <v>265</v>
+      </c>
+      <c r="L28">
+        <v>6</v>
+      </c>
+      <c r="M28" s="5">
+        <f>L28/K28</f>
+        <v>2.2641509433962263E-2</v>
+      </c>
+      <c r="N28">
+        <f>(K28+L28)/(J28/1000)</f>
+        <v>1.9200113358602853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A29,'All Data'!$B$2:$B$722,'Per Round'!$B29,'All Data'!$D$2:$D$722,'Per Round'!$C29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A29,'All Data'!$B$2:$B$722,'Per Round'!$B29,'All Data'!$D$2:$D$722,'Per Round'!$C29)</f>
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A29,'All Data'!$B$2:$B$722,'Per Round'!$B29,'All Data'!$D$2:$D$722,'Per Round'!$C29)</f>
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A29,'All Data'!$B$2:$B$722,'Per Round'!$B29,'All Data'!$D$2:$D$722,'Per Round'!$C29)</f>
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>142577</v>
+      </c>
+      <c r="K29">
+        <v>267</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29" s="5">
+        <f>L29/K29</f>
+        <v>1.8726591760299626E-2</v>
+      </c>
+      <c r="N29">
+        <f>(K29+L29)/(J29/1000)</f>
+        <v>1.9077410802583867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A30,'All Data'!$B$2:$B$722,'Per Round'!$B30,'All Data'!$D$2:$D$722,'Per Round'!$C30)</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A30,'All Data'!$B$2:$B$722,'Per Round'!$B30,'All Data'!$D$2:$D$722,'Per Round'!$C30)</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A30,'All Data'!$B$2:$B$722,'Per Round'!$B30,'All Data'!$D$2:$D$722,'Per Round'!$C30)</f>
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A30,'All Data'!$B$2:$B$722,'Per Round'!$B30,'All Data'!$D$2:$D$722,'Per Round'!$C30)</f>
+        <v>9</v>
+      </c>
+      <c r="J30">
+        <v>126797</v>
+      </c>
+      <c r="K30">
+        <v>243</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <f>L30/K30</f>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f>(K30+L30)/(J30/1000)</f>
+        <v>1.9164491273452842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A31,'All Data'!$B$2:$B$722,'Per Round'!$B31,'All Data'!$D$2:$D$722,'Per Round'!$C31)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A31,'All Data'!$B$2:$B$722,'Per Round'!$B31,'All Data'!$D$2:$D$722,'Per Round'!$C31)</f>
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A31,'All Data'!$B$2:$B$722,'Per Round'!$B31,'All Data'!$D$2:$D$722,'Per Round'!$C31)</f>
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A31,'All Data'!$B$2:$B$722,'Per Round'!$B31,'All Data'!$D$2:$D$722,'Per Round'!$C31)</f>
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <v>122236</v>
+      </c>
+      <c r="K31">
+        <v>235</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <f>L31/K31</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f>(K31+L31)/(J31/1000)</f>
+        <v>1.9225105533558036</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A32,'All Data'!$B$2:$B$722,'Per Round'!$B32,'All Data'!$D$2:$D$722,'Per Round'!$C32)</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A32,'All Data'!$B$2:$B$722,'Per Round'!$B32,'All Data'!$D$2:$D$722,'Per Round'!$C32)</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A32,'All Data'!$B$2:$B$722,'Per Round'!$B32,'All Data'!$D$2:$D$722,'Per Round'!$C32)</f>
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A32,'All Data'!$B$2:$B$722,'Per Round'!$B32,'All Data'!$D$2:$D$722,'Per Round'!$C32)</f>
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>135158</v>
+      </c>
+      <c r="K32">
+        <v>261</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <f>L32/K32</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>(K32+L32)/(J32/1000)</f>
+        <v>1.9310732624040015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A33,'All Data'!$B$2:$B$722,'Per Round'!$B33,'All Data'!$D$2:$D$722,'Per Round'!$C33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A33,'All Data'!$B$2:$B$722,'Per Round'!$B33,'All Data'!$D$2:$D$722,'Per Round'!$C33)</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A33,'All Data'!$B$2:$B$722,'Per Round'!$B33,'All Data'!$D$2:$D$722,'Per Round'!$C33)</f>
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A33,'All Data'!$B$2:$B$722,'Per Round'!$B33,'All Data'!$D$2:$D$722,'Per Round'!$C33)</f>
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>124954</v>
+      </c>
+      <c r="K33">
+        <v>241</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
+        <f>L33/K33</f>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f>(K33+L33)/(J33/1000)</f>
+        <v>1.9287097651935914</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A34,'All Data'!$B$2:$B$722,'Per Round'!$B34,'All Data'!$D$2:$D$722,'Per Round'!$C34)</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A34,'All Data'!$B$2:$B$722,'Per Round'!$B34,'All Data'!$D$2:$D$722,'Per Round'!$C34)</f>
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A34,'All Data'!$B$2:$B$722,'Per Round'!$B34,'All Data'!$D$2:$D$722,'Per Round'!$C34)</f>
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A34,'All Data'!$B$2:$B$722,'Per Round'!$B34,'All Data'!$D$2:$D$722,'Per Round'!$C34)</f>
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <v>141918</v>
+      </c>
+      <c r="K34">
+        <v>270</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" s="5">
+        <f>L34/K34</f>
+        <v>3.7037037037037038E-3</v>
+      </c>
+      <c r="N34">
+        <f>(K34+L34)/(J34/1000)</f>
+        <v>1.9095534040784115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A35,'All Data'!$B$2:$B$722,'Per Round'!$B35,'All Data'!$D$2:$D$722,'Per Round'!$C35)</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A35,'All Data'!$B$2:$B$722,'Per Round'!$B35,'All Data'!$D$2:$D$722,'Per Round'!$C35)</f>
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A35,'All Data'!$B$2:$B$722,'Per Round'!$B35,'All Data'!$D$2:$D$722,'Per Round'!$C35)</f>
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A35,'All Data'!$B$2:$B$722,'Per Round'!$B35,'All Data'!$D$2:$D$722,'Per Round'!$C35)</f>
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>142493</v>
+      </c>
+      <c r="K35">
+        <v>273</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <f>L35/K35</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f>(K35+L35)/(J35/1000)</f>
+        <v>1.9158835872639359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A36,'All Data'!$B$2:$B$722,'Per Round'!$B36,'All Data'!$D$2:$D$722,'Per Round'!$C36)</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A36,'All Data'!$B$2:$B$722,'Per Round'!$B36,'All Data'!$D$2:$D$722,'Per Round'!$C36)</f>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A36,'All Data'!$B$2:$B$722,'Per Round'!$B36,'All Data'!$D$2:$D$722,'Per Round'!$C36)</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A36,'All Data'!$B$2:$B$722,'Per Round'!$B36,'All Data'!$D$2:$D$722,'Per Round'!$C36)</f>
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>135805</v>
+      </c>
+      <c r="K36">
+        <v>262</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5">
+        <f>L36/K36</f>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f>(K36+L36)/(J36/1000)</f>
+        <v>1.9292367733146791</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A37,'All Data'!$B$2:$B$722,'Per Round'!$B37,'All Data'!$D$2:$D$722,'Per Round'!$C37)</f>
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A37,'All Data'!$B$2:$B$722,'Per Round'!$B37,'All Data'!$D$2:$D$722,'Per Round'!$C37)</f>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A37,'All Data'!$B$2:$B$722,'Per Round'!$B37,'All Data'!$D$2:$D$722,'Per Round'!$C37)</f>
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A37,'All Data'!$B$2:$B$722,'Per Round'!$B37,'All Data'!$D$2:$D$722,'Per Round'!$C37)</f>
+        <v>7</v>
+      </c>
+      <c r="J37">
+        <v>132210</v>
+      </c>
+      <c r="K37">
+        <v>254</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
+        <f>L37/K37</f>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f>(K37+L37)/(J37/1000)</f>
+        <v>1.9211859919824521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A38,'All Data'!$B$2:$B$722,'Per Round'!$B38,'All Data'!$D$2:$D$722,'Per Round'!$C38)</f>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A38,'All Data'!$B$2:$B$722,'Per Round'!$B38,'All Data'!$D$2:$D$722,'Per Round'!$C38)</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A38,'All Data'!$B$2:$B$722,'Per Round'!$B38,'All Data'!$D$2:$D$722,'Per Round'!$C38)</f>
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A38,'All Data'!$B$2:$B$722,'Per Round'!$B38,'All Data'!$D$2:$D$722,'Per Round'!$C38)</f>
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>141267</v>
+      </c>
+      <c r="K38">
+        <v>266</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38" s="5">
+        <f>L38/K38</f>
+        <v>1.1278195488721804E-2</v>
+      </c>
+      <c r="N38">
+        <f>(K38+L38)/(J38/1000)</f>
+        <v>1.9041956012373733</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A39,'All Data'!$B$2:$B$722,'Per Round'!$B39,'All Data'!$D$2:$D$722,'Per Round'!$C39)</f>
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A39,'All Data'!$B$2:$B$722,'Per Round'!$B39,'All Data'!$D$2:$D$722,'Per Round'!$C39)</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A39,'All Data'!$B$2:$B$722,'Per Round'!$B39,'All Data'!$D$2:$D$722,'Per Round'!$C39)</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A39,'All Data'!$B$2:$B$722,'Per Round'!$B39,'All Data'!$D$2:$D$722,'Per Round'!$C39)</f>
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>128742</v>
+      </c>
+      <c r="K39">
+        <v>248</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
+        <f>L39/K39</f>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f>(K39+L39)/(J39/1000)</f>
+        <v>1.9263332867284959</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A40,'All Data'!$B$2:$B$722,'Per Round'!$B40,'All Data'!$D$2:$D$722,'Per Round'!$C40)</f>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A40,'All Data'!$B$2:$B$722,'Per Round'!$B40,'All Data'!$D$2:$D$722,'Per Round'!$C40)</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A40,'All Data'!$B$2:$B$722,'Per Round'!$B40,'All Data'!$D$2:$D$722,'Per Round'!$C40)</f>
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A40,'All Data'!$B$2:$B$722,'Per Round'!$B40,'All Data'!$D$2:$D$722,'Per Round'!$C40)</f>
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>126818</v>
+      </c>
+      <c r="K40">
+        <v>244</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <f>L40/K40</f>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f>(K40+L40)/(J40/1000)</f>
+        <v>1.9240170953650113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A41,'All Data'!$B$2:$B$722,'Per Round'!$B41,'All Data'!$D$2:$D$722,'Per Round'!$C41)</f>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A41,'All Data'!$B$2:$B$722,'Per Round'!$B41,'All Data'!$D$2:$D$722,'Per Round'!$C41)</f>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A41,'All Data'!$B$2:$B$722,'Per Round'!$B41,'All Data'!$D$2:$D$722,'Per Round'!$C41)</f>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A41,'All Data'!$B$2:$B$722,'Per Round'!$B41,'All Data'!$D$2:$D$722,'Per Round'!$C41)</f>
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>120201</v>
+      </c>
+      <c r="K41">
+        <v>232</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <f>L41/K41</f>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f>(K41+L41)/(J41/1000)</f>
+        <v>1.9301004151379773</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A42,'All Data'!$B$2:$B$722,'Per Round'!$B42,'All Data'!$D$2:$D$722,'Per Round'!$C42)</f>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A42,'All Data'!$B$2:$B$722,'Per Round'!$B42,'All Data'!$D$2:$D$722,'Per Round'!$C42)</f>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A42,'All Data'!$B$2:$B$722,'Per Round'!$B42,'All Data'!$D$2:$D$722,'Per Round'!$C42)</f>
+        <v>16</v>
+      </c>
+      <c r="I42">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A42,'All Data'!$B$2:$B$722,'Per Round'!$B42,'All Data'!$D$2:$D$722,'Per Round'!$C42)</f>
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>122062</v>
+      </c>
+      <c r="K42">
+        <v>232</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <f>L42/K42</f>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f>(K42+L42)/(J42/1000)</f>
+        <v>1.9006734282577706</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A43,'All Data'!$B$2:$B$722,'Per Round'!$B43,'All Data'!$D$2:$D$722,'Per Round'!$C43)</f>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A43,'All Data'!$B$2:$B$722,'Per Round'!$B43,'All Data'!$D$2:$D$722,'Per Round'!$C43)</f>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A43,'All Data'!$B$2:$B$722,'Per Round'!$B43,'All Data'!$D$2:$D$722,'Per Round'!$C43)</f>
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A43,'All Data'!$B$2:$B$722,'Per Round'!$B43,'All Data'!$D$2:$D$722,'Per Round'!$C43)</f>
+        <v>6</v>
+      </c>
+      <c r="J43">
+        <v>124955</v>
+      </c>
+      <c r="K43">
+        <v>240</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <f>L43/K43</f>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f>(K43+L43)/(J43/1000)</f>
+        <v>1.9206914489216118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A44,'All Data'!$B$2:$B$722,'Per Round'!$B44,'All Data'!$D$2:$D$722,'Per Round'!$C44)</f>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A44,'All Data'!$B$2:$B$722,'Per Round'!$B44,'All Data'!$D$2:$D$722,'Per Round'!$C44)</f>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A44,'All Data'!$B$2:$B$722,'Per Round'!$B44,'All Data'!$D$2:$D$722,'Per Round'!$C44)</f>
+        <v>7</v>
+      </c>
+      <c r="I44">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A44,'All Data'!$B$2:$B$722,'Per Round'!$B44,'All Data'!$D$2:$D$722,'Per Round'!$C44)</f>
+        <v>8</v>
+      </c>
+      <c r="J44">
+        <v>138459</v>
+      </c>
+      <c r="K44">
+        <v>262</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44" s="5">
+        <f>L44/K44</f>
+        <v>7.6335877862595417E-3</v>
+      </c>
+      <c r="N44">
+        <f>(K44+L44)/(J44/1000)</f>
+        <v>1.9067016228630858</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A45,'All Data'!$B$2:$B$722,'Per Round'!$B45,'All Data'!$D$2:$D$722,'Per Round'!$C45)</f>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A45,'All Data'!$B$2:$B$722,'Per Round'!$B45,'All Data'!$D$2:$D$722,'Per Round'!$C45)</f>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A45,'All Data'!$B$2:$B$722,'Per Round'!$B45,'All Data'!$D$2:$D$722,'Per Round'!$C45)</f>
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A45,'All Data'!$B$2:$B$722,'Per Round'!$B45,'All Data'!$D$2:$D$722,'Per Round'!$C45)</f>
+        <v>7</v>
+      </c>
+      <c r="J45">
+        <v>132008</v>
+      </c>
+      <c r="K45">
+        <v>255</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <f>L45/K45</f>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f>(K45+L45)/(J45/1000)</f>
+        <v>1.9317011090236953</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A46,'All Data'!$B$2:$B$722,'Per Round'!$B46,'All Data'!$D$2:$D$722,'Per Round'!$C46)</f>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A46,'All Data'!$B$2:$B$722,'Per Round'!$B46,'All Data'!$D$2:$D$722,'Per Round'!$C46)</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A46,'All Data'!$B$2:$B$722,'Per Round'!$B46,'All Data'!$D$2:$D$722,'Per Round'!$C46)</f>
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A46,'All Data'!$B$2:$B$722,'Per Round'!$B46,'All Data'!$D$2:$D$722,'Per Round'!$C46)</f>
+        <v>12</v>
+      </c>
+      <c r="J46">
+        <v>140391</v>
+      </c>
+      <c r="K46">
+        <v>266</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46" s="5">
+        <f>L46/K46</f>
+        <v>1.1278195488721804E-2</v>
+      </c>
+      <c r="N46">
+        <f>(K46+L46)/(J46/1000)</f>
+        <v>1.9160772414186096</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A47,'All Data'!$B$2:$B$722,'Per Round'!$B47,'All Data'!$D$2:$D$722,'Per Round'!$C47)</f>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A47,'All Data'!$B$2:$B$722,'Per Round'!$B47,'All Data'!$D$2:$D$722,'Per Round'!$C47)</f>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A47,'All Data'!$B$2:$B$722,'Per Round'!$B47,'All Data'!$D$2:$D$722,'Per Round'!$C47)</f>
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A47,'All Data'!$B$2:$B$722,'Per Round'!$B47,'All Data'!$D$2:$D$722,'Per Round'!$C47)</f>
+        <v>9</v>
+      </c>
+      <c r="J47">
+        <v>139191</v>
+      </c>
+      <c r="K47">
+        <v>268</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5">
+        <f>L47/K47</f>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f>(K47+L47)/(J47/1000)</f>
+        <v>1.9254118441565906</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A48,'All Data'!$B$2:$B$722,'Per Round'!$B48,'All Data'!$D$2:$D$722,'Per Round'!$C48)</f>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A48,'All Data'!$B$2:$B$722,'Per Round'!$B48,'All Data'!$D$2:$D$722,'Per Round'!$C48)</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A48,'All Data'!$B$2:$B$722,'Per Round'!$B48,'All Data'!$D$2:$D$722,'Per Round'!$C48)</f>
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A48,'All Data'!$B$2:$B$722,'Per Round'!$B48,'All Data'!$D$2:$D$722,'Per Round'!$C48)</f>
+        <v>13</v>
+      </c>
+      <c r="J48">
+        <v>139775</v>
+      </c>
+      <c r="K48">
+        <v>263</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48" s="5">
+        <f>L48/K48</f>
+        <v>1.1406844106463879E-2</v>
+      </c>
+      <c r="N48">
+        <f>(K48+L48)/(J48/1000)</f>
+        <v>1.9030584868538722</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A49,'All Data'!$B$2:$B$722,'Per Round'!$B49,'All Data'!$D$2:$D$722,'Per Round'!$C49)</f>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A49,'All Data'!$B$2:$B$722,'Per Round'!$B49,'All Data'!$D$2:$D$722,'Per Round'!$C49)</f>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A49,'All Data'!$B$2:$B$722,'Per Round'!$B49,'All Data'!$D$2:$D$722,'Per Round'!$C49)</f>
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A49,'All Data'!$B$2:$B$722,'Per Round'!$B49,'All Data'!$D$2:$D$722,'Per Round'!$C49)</f>
+        <v>11</v>
+      </c>
+      <c r="J49">
+        <v>141347</v>
+      </c>
+      <c r="K49">
+        <v>265</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49" s="5">
+        <f>L49/K49</f>
+        <v>1.1320754716981131E-2</v>
+      </c>
+      <c r="N49">
+        <f>(K49+L49)/(J49/1000)</f>
+        <v>1.896043071306784</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A50,'All Data'!$B$2:$B$722,'Per Round'!$B50,'All Data'!$D$2:$D$722,'Per Round'!$C50)</f>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A50,'All Data'!$B$2:$B$722,'Per Round'!$B50,'All Data'!$D$2:$D$722,'Per Round'!$C50)</f>
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A50,'All Data'!$B$2:$B$722,'Per Round'!$B50,'All Data'!$D$2:$D$722,'Per Round'!$C50)</f>
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A50,'All Data'!$B$2:$B$722,'Per Round'!$B50,'All Data'!$D$2:$D$722,'Per Round'!$C50)</f>
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>130943</v>
+      </c>
+      <c r="K50">
+        <v>147</v>
+      </c>
+      <c r="L50">
+        <v>70</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f>(K50+L50)/(J50/1000)</f>
+        <v>1.6572096255622675</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A51,'All Data'!$B$2:$B$722,'Per Round'!$B51,'All Data'!$D$2:$D$722,'Per Round'!$C51)</f>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A51,'All Data'!$B$2:$B$722,'Per Round'!$B51,'All Data'!$D$2:$D$722,'Per Round'!$C51)</f>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A51,'All Data'!$B$2:$B$722,'Per Round'!$B51,'All Data'!$D$2:$D$722,'Per Round'!$C51)</f>
+        <v>8</v>
+      </c>
+      <c r="I51">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A51,'All Data'!$B$2:$B$722,'Per Round'!$B51,'All Data'!$D$2:$D$722,'Per Round'!$C51)</f>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>124776</v>
+      </c>
+      <c r="K51">
+        <v>207</v>
+      </c>
+      <c r="L51">
+        <v>22</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f>(K51+L51)/(J51/1000)</f>
+        <v>1.8352888375969738</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A52,'All Data'!$B$2:$B$722,'Per Round'!$B52,'All Data'!$D$2:$D$722,'Per Round'!$C52)</f>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A52,'All Data'!$B$2:$B$722,'Per Round'!$B52,'All Data'!$D$2:$D$722,'Per Round'!$C52)</f>
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A52,'All Data'!$B$2:$B$722,'Per Round'!$B52,'All Data'!$D$2:$D$722,'Per Round'!$C52)</f>
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A52,'All Data'!$B$2:$B$722,'Per Round'!$B52,'All Data'!$D$2:$D$722,'Per Round'!$C52)</f>
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>58072</v>
+      </c>
+      <c r="K52">
+        <v>100</v>
+      </c>
+      <c r="L52">
+        <v>8</v>
+      </c>
+      <c r="M52" s="5">
+        <f>L52/K52</f>
+        <v>0.08</v>
+      </c>
+      <c r="N52">
+        <f>(K52+L52)/(J52/1000)</f>
+        <v>1.8597602975616476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A53,'All Data'!$B$2:$B$722,'Per Round'!$B53,'All Data'!$D$2:$D$722,'Per Round'!$C53)</f>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A53,'All Data'!$B$2:$B$722,'Per Round'!$B53,'All Data'!$D$2:$D$722,'Per Round'!$C53)</f>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A53,'All Data'!$B$2:$B$722,'Per Round'!$B53,'All Data'!$D$2:$D$722,'Per Round'!$C53)</f>
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A53,'All Data'!$B$2:$B$722,'Per Round'!$B53,'All Data'!$D$2:$D$722,'Per Round'!$C53)</f>
+        <v>14</v>
+      </c>
+      <c r="J53">
+        <v>63579</v>
+      </c>
+      <c r="K53">
+        <v>119</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" s="5">
+        <f>L53/K53</f>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f>(K53+L53)/(J53/1000)</f>
+        <v>1.8716871923119269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A54,'All Data'!$B$2:$B$722,'Per Round'!$B54,'All Data'!$D$2:$D$722,'Per Round'!$C54)</f>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A54,'All Data'!$B$2:$B$722,'Per Round'!$B54,'All Data'!$D$2:$D$722,'Per Round'!$C54)</f>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A54,'All Data'!$B$2:$B$722,'Per Round'!$B54,'All Data'!$D$2:$D$722,'Per Round'!$C54)</f>
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A54,'All Data'!$B$2:$B$722,'Per Round'!$B54,'All Data'!$D$2:$D$722,'Per Round'!$C54)</f>
+        <v>9</v>
+      </c>
+      <c r="J54">
+        <v>89132</v>
+      </c>
+      <c r="K54">
+        <v>166</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54" s="5">
+        <f>L54/K54</f>
+        <v>1.2048192771084338E-2</v>
+      </c>
+      <c r="N54">
+        <f>(K54+L54)/(J54/1000)</f>
+        <v>1.8848449490643091</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A55,'All Data'!$B$2:$B$722,'Per Round'!$B55,'All Data'!$D$2:$D$722,'Per Round'!$C55)</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A55,'All Data'!$B$2:$B$722,'Per Round'!$B55,'All Data'!$D$2:$D$722,'Per Round'!$C55)</f>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A55,'All Data'!$B$2:$B$722,'Per Round'!$B55,'All Data'!$D$2:$D$722,'Per Round'!$C55)</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A55,'All Data'!$B$2:$B$722,'Per Round'!$B55,'All Data'!$D$2:$D$722,'Per Round'!$C55)</f>
+        <v>12</v>
+      </c>
+      <c r="J55">
+        <v>125791</v>
+      </c>
+      <c r="K55">
+        <v>238</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55" s="5">
+        <f>L55/K55</f>
+        <v>1.2605042016806723E-2</v>
+      </c>
+      <c r="N55">
+        <f>(K55+L55)/(J55/1000)</f>
+        <v>1.9158763345549363</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A56,'All Data'!$B$2:$B$722,'Per Round'!$B56,'All Data'!$D$2:$D$722,'Per Round'!$C56)</f>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A56,'All Data'!$B$2:$B$722,'Per Round'!$B56,'All Data'!$D$2:$D$722,'Per Round'!$C56)</f>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A56,'All Data'!$B$2:$B$722,'Per Round'!$B56,'All Data'!$D$2:$D$722,'Per Round'!$C56)</f>
+        <v>11</v>
+      </c>
+      <c r="I56">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A56,'All Data'!$B$2:$B$722,'Per Round'!$B56,'All Data'!$D$2:$D$722,'Per Round'!$C56)</f>
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>133336</v>
+      </c>
+      <c r="K56">
+        <v>252</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56" s="5">
+        <f>L56/K56</f>
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="N56">
+        <f>(K56+L56)/(J56/1000)</f>
+        <v>1.9049619007619847</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A57,'All Data'!$B$2:$B$722,'Per Round'!$B57,'All Data'!$D$2:$D$722,'Per Round'!$C57)</f>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A57,'All Data'!$B$2:$B$722,'Per Round'!$B57,'All Data'!$D$2:$D$722,'Per Round'!$C57)</f>
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A57,'All Data'!$B$2:$B$722,'Per Round'!$B57,'All Data'!$D$2:$D$722,'Per Round'!$C57)</f>
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A57,'All Data'!$B$2:$B$722,'Per Round'!$B57,'All Data'!$D$2:$D$722,'Per Round'!$C57)</f>
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>122460</v>
+      </c>
+      <c r="K57">
+        <v>234</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57" s="5">
+        <f>L57/K57</f>
+        <v>4.2735042735042739E-3</v>
+      </c>
+      <c r="N57">
+        <f>(K57+L57)/(J57/1000)</f>
+        <v>1.9189939572105179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A58,'All Data'!$B$2:$B$722,'Per Round'!$B58,'All Data'!$D$2:$D$722,'Per Round'!$C58)</f>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A58,'All Data'!$B$2:$B$722,'Per Round'!$B58,'All Data'!$D$2:$D$722,'Per Round'!$C58)</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A58,'All Data'!$B$2:$B$722,'Per Round'!$B58,'All Data'!$D$2:$D$722,'Per Round'!$C58)</f>
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A58,'All Data'!$B$2:$B$722,'Per Round'!$B58,'All Data'!$D$2:$D$722,'Per Round'!$C58)</f>
+        <v>9</v>
+      </c>
+      <c r="J58">
+        <v>127885</v>
+      </c>
+      <c r="K58">
+        <v>248</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" s="5">
+        <f>L58/K58</f>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f>(K58+L58)/(J58/1000)</f>
+        <v>1.9392422879931188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A59,'All Data'!$B$2:$B$722,'Per Round'!$B59,'All Data'!$D$2:$D$722,'Per Round'!$C59)</f>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A59,'All Data'!$B$2:$B$722,'Per Round'!$B59,'All Data'!$D$2:$D$722,'Per Round'!$C59)</f>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A59,'All Data'!$B$2:$B$722,'Per Round'!$B59,'All Data'!$D$2:$D$722,'Per Round'!$C59)</f>
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A59,'All Data'!$B$2:$B$722,'Per Round'!$B59,'All Data'!$D$2:$D$722,'Per Round'!$C59)</f>
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>120898</v>
+      </c>
+      <c r="K59">
+        <v>233</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" s="5">
+        <f>L59/K59</f>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f>(K59+L59)/(J59/1000)</f>
+        <v>1.9272444540025477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A60,'All Data'!$B$2:$B$722,'Per Round'!$B60,'All Data'!$D$2:$D$722,'Per Round'!$C60)</f>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A60,'All Data'!$B$2:$B$722,'Per Round'!$B60,'All Data'!$D$2:$D$722,'Per Round'!$C60)</f>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A60,'All Data'!$B$2:$B$722,'Per Round'!$B60,'All Data'!$D$2:$D$722,'Per Round'!$C60)</f>
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A60,'All Data'!$B$2:$B$722,'Per Round'!$B60,'All Data'!$D$2:$D$722,'Per Round'!$C60)</f>
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <v>129238</v>
+      </c>
+      <c r="K60">
+        <v>246</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60" s="5">
+        <f>L60/K60</f>
+        <v>4.0650406504065045E-3</v>
+      </c>
+      <c r="N60">
+        <f>(K60+L60)/(J60/1000)</f>
+        <v>1.9112025874742722</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A61,'All Data'!$B$2:$B$722,'Per Round'!$B61,'All Data'!$D$2:$D$722,'Per Round'!$C61)</f>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A61,'All Data'!$B$2:$B$722,'Per Round'!$B61,'All Data'!$D$2:$D$722,'Per Round'!$C61)</f>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A61,'All Data'!$B$2:$B$722,'Per Round'!$B61,'All Data'!$D$2:$D$722,'Per Round'!$C61)</f>
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A61,'All Data'!$B$2:$B$722,'Per Round'!$B61,'All Data'!$D$2:$D$722,'Per Round'!$C61)</f>
+        <v>9</v>
+      </c>
+      <c r="J61">
+        <v>134495</v>
+      </c>
+      <c r="K61">
+        <v>260</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" s="5">
+        <f>L61/K61</f>
+        <v>3.8461538461538464E-3</v>
+      </c>
+      <c r="N61">
+        <f>(K61+L61)/(J61/1000)</f>
+        <v>1.9405925870850216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A62,'All Data'!$B$2:$B$722,'Per Round'!$B62,'All Data'!$D$2:$D$722,'Per Round'!$C62)</f>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A62,'All Data'!$B$2:$B$722,'Per Round'!$B62,'All Data'!$D$2:$D$722,'Per Round'!$C62)</f>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A62,'All Data'!$B$2:$B$722,'Per Round'!$B62,'All Data'!$D$2:$D$722,'Per Round'!$C62)</f>
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A62,'All Data'!$B$2:$B$722,'Per Round'!$B62,'All Data'!$D$2:$D$722,'Per Round'!$C62)</f>
+        <v>6</v>
+      </c>
+      <c r="J62">
+        <v>138442</v>
+      </c>
+      <c r="K62">
+        <v>268</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62" s="5">
+        <f>L62/K62</f>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f>(K62+L62)/(J62/1000)</f>
+        <v>1.9358287224975079</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A63,'All Data'!$B$2:$B$722,'Per Round'!$B63,'All Data'!$D$2:$D$722,'Per Round'!$C63)</f>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A63,'All Data'!$B$2:$B$722,'Per Round'!$B63,'All Data'!$D$2:$D$722,'Per Round'!$C63)</f>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A63,'All Data'!$B$2:$B$722,'Per Round'!$B63,'All Data'!$D$2:$D$722,'Per Round'!$C63)</f>
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A63,'All Data'!$B$2:$B$722,'Per Round'!$B63,'All Data'!$D$2:$D$722,'Per Round'!$C63)</f>
+        <v>6</v>
+      </c>
+      <c r="J63">
+        <v>131608</v>
+      </c>
+      <c r="K63">
+        <v>254</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63" s="5">
+        <f>L63/K63</f>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f>(K63+L63)/(J63/1000)</f>
+        <v>1.9299738617713209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A64,'All Data'!$B$2:$B$722,'Per Round'!$B64,'All Data'!$D$2:$D$722,'Per Round'!$C64)</f>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A64,'All Data'!$B$2:$B$722,'Per Round'!$B64,'All Data'!$D$2:$D$722,'Per Round'!$C64)</f>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A64,'All Data'!$B$2:$B$722,'Per Round'!$B64,'All Data'!$D$2:$D$722,'Per Round'!$C64)</f>
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A64,'All Data'!$B$2:$B$722,'Per Round'!$B64,'All Data'!$D$2:$D$722,'Per Round'!$C64)</f>
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>128436</v>
+      </c>
+      <c r="K64">
+        <v>249</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" s="5">
+        <f>L64/K64</f>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <f>(K64+L64)/(J64/1000)</f>
+        <v>1.9387087732411472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <f>SUMIFS('All Data'!E$2:E$722,'All Data'!$A$2:$A$722,'Per Round'!$A65,'All Data'!$B$2:$B$722,'Per Round'!$B65,'All Data'!$D$2:$D$722,'Per Round'!$C65)</f>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f>SUMIFS('All Data'!F$2:F$722,'All Data'!$A$2:$A$722,'Per Round'!$A65,'All Data'!$B$2:$B$722,'Per Round'!$B65,'All Data'!$D$2:$D$722,'Per Round'!$C65)</f>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f>SUMIFS('All Data'!G$2:G$722,'All Data'!$A$2:$A$722,'Per Round'!$A65,'All Data'!$B$2:$B$722,'Per Round'!$B65,'All Data'!$D$2:$D$722,'Per Round'!$C65)</f>
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <f>SUMIFS('All Data'!H$2:H$722,'All Data'!$A$2:$A$722,'Per Round'!$A65,'All Data'!$B$2:$B$722,'Per Round'!$B65,'All Data'!$D$2:$D$722,'Per Round'!$C65)</f>
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <v>123955</v>
+      </c>
+      <c r="K65">
+        <v>240</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65" s="5">
+        <f>L65/K65</f>
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <f>(K65+L65)/(J65/1000)</f>
+        <v>1.9361865193013594</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
